--- a/docs/czems/czems-metadata.xlsx
+++ b/docs/czems/czems-metadata.xlsx
@@ -15,13 +15,14 @@
     <sheet name="ms_source list" sheetId="6" r:id="rId6"/>
     <sheet name="polarity list" sheetId="7" r:id="rId7"/>
     <sheet name="ion_mobility list" sheetId="8" r:id="rId8"/>
-    <sheet name="ms_scan_mode list" sheetId="9" r:id="rId9"/>
-    <sheet name="ce_interface list" sheetId="10" r:id="rId10"/>
-    <sheet name="ce_electroosmotic_flow list" sheetId="11" r:id="rId11"/>
-    <sheet name="spatial_type list" sheetId="12" r:id="rId12"/>
-    <sheet name="spatial_sampling_type list" sheetId="13" r:id="rId13"/>
-    <sheet name="resolution_x_unit list" sheetId="14" r:id="rId14"/>
-    <sheet name="resolution_y_unit list" sheetId="15" r:id="rId15"/>
+    <sheet name="data_collection_mode list" sheetId="9" r:id="rId9"/>
+    <sheet name="ms_scan_mode list" sheetId="10" r:id="rId10"/>
+    <sheet name="ce_interface list" sheetId="11" r:id="rId11"/>
+    <sheet name="ce_electroosmotic_flow list" sheetId="12" r:id="rId12"/>
+    <sheet name="spatial_type list" sheetId="13" r:id="rId13"/>
+    <sheet name="spatial_sampling_type list" sheetId="14" r:id="rId14"/>
+    <sheet name="resolution_x_unit list" sheetId="15" r:id="rId15"/>
+    <sheet name="resolution_y_unit list" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -315,7 +316,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>TThe peak (m/z) used to calculate the MS1 resolving power.</t>
+          <t>The peak (m/z) used to calculate the resolving power.</t>
         </r>
       </text>
     </comment>
@@ -341,7 +342,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>TODO</t>
+          <t>Mode of data collection in tandem MS assays. Either DDA (Data-dependent acquisition) or DIA (Data-independent acquisition).</t>
         </r>
       </text>
     </comment>
@@ -367,7 +368,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>TODO</t>
+          <t>Indicates whether samples were labeled prior to MS analysis (e.g., TMT).</t>
         </r>
       </text>
     </comment>
@@ -661,7 +662,7 @@
     <t>assay_category</t>
   </si>
   <si>
-    <t>mass_spectrometry_imaging</t>
+    <t>mass_spectrometry</t>
   </si>
   <si>
     <t>assay_type</t>
@@ -703,13 +704,7 @@
     <t>ms_source</t>
   </si>
   <si>
-    <t>ESI</t>
-  </si>
-  <si>
-    <t>MALDI</t>
-  </si>
-  <si>
-    <t>DESI</t>
+    <t>nanoflex</t>
   </si>
   <si>
     <t>polarity</t>
@@ -752,6 +747,12 @@
   </si>
   <si>
     <t>data_collection_mode</t>
+  </si>
+  <si>
+    <t>DDA</t>
+  </si>
+  <si>
+    <t>DIA</t>
   </si>
   <si>
     <t>ms_scan_mode</t>
@@ -1273,25 +1274,25 @@
         <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>43</v>
@@ -1358,11 +1359,11 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="21">
+  <dataValidations count="22">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: CZE-MS." sqref="L2:L1048576">
@@ -1374,8 +1375,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ESI / MALDI / DESI." sqref="Q2:Q1048576">
-      <formula1>'ms_source list'!$A$1:$A$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nanoflex." sqref="Q2:Q1048576">
+      <formula1>'ms_source list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode." sqref="R2:R1048576">
       <formula1>'polarity list'!$A$1:$A$2</formula1>
@@ -1398,6 +1399,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TIMS / TWIMS / FAIMS / DTIMS / SLIMS." sqref="W2:W1048576">
       <formula1>'ion_mobility list'!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DDA / DIA." sqref="X2:X1048576">
+      <formula1>'data_collection_mode list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MS / MS/MS / MS3." sqref="Y2:Y1048576">
       <formula1>'ms_scan_mode list'!$A$1:$A$3</formula1>
@@ -1435,6 +1439,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1457,7 +1489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1485,7 +1517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1518,7 +1550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1534,29 +1566,6 @@
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1587,6 +1596,29 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
@@ -1686,7 +1718,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1695,16 +1727,6 @@
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1722,12 +1744,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1745,27 +1767,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1775,7 +1797,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1783,17 +1805,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/docs/czems/czems-metadata.xlsx
+++ b/docs/czems/czems-metadata.xlsx
@@ -303,7 +303,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The MS1 resolving power defined as m/∆m where ∆m is the FWHM for a given peak with a specified m/z (m). (unitless)</t>
+          <t>This is the MS1 resolving power. This is a unitless value often calculated as m/∆m where ∆m is the FWHM for a given peak with a certain m/z (m).</t>
         </r>
       </text>
     </comment>
@@ -355,7 +355,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Indicates whether the data were generated using MS, MS/MS, MS3, or MSn.</t>
+          <t>Indicates whether the data were generated using MS, MS/MS or MS3.</t>
         </r>
       </text>
     </comment>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>version</t>
   </si>
@@ -705,6 +705,9 @@
   </si>
   <si>
     <t>nanoflex</t>
+  </si>
+  <si>
+    <t>ESI</t>
   </si>
   <si>
     <t>polarity</t>
@@ -1274,88 +1277,88 @@
         <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1375,8 +1378,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nanoflex." sqref="Q2:Q1048576">
-      <formula1>'ms_source list'!$A$1:$A$1</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nanoflex / ESI." sqref="Q2:Q1048576">
+      <formula1>'ms_source list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode." sqref="R2:R1048576">
       <formula1>'polarity list'!$A$1:$A$2</formula1>
@@ -1448,17 +1451,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1476,12 +1479,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1499,17 +1502,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1527,22 +1530,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1560,12 +1563,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1583,12 +1586,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1606,12 +1609,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1718,7 +1721,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1727,6 +1730,11 @@
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1744,12 +1752,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1767,27 +1775,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1805,12 +1813,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
